--- a/nicole-source-table.xlsx
+++ b/nicole-source-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\University\3rd Year\Multimedia\mada-html-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2DF0E1-C185-4F58-BC55-7F3781501ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BCE0D4-77D7-46B8-87DE-4CF510C44E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7C98166-BE8C-41E6-BFB9-5DDE6B92CA9E}"/>
+    <workbookView xWindow="8630" yWindow="1280" windowWidth="10510" windowHeight="8920" xr2:uid="{B7C98166-BE8C-41E6-BFB9-5DDE6B92CA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Metadata and Justification Spreadsheet</t>
   </si>
@@ -147,6 +147,36 @@
   </si>
   <si>
     <t>Ted Talk, 'video games in education'</t>
+  </si>
+  <si>
+    <t>Shows how video games can be beneficial in a professional way and not just as enjoyment, people can gain skills and things while they are playing games</t>
+  </si>
+  <si>
+    <t>The General Learning Model: Unveiling the Teaching Potential of Video Games</t>
+  </si>
+  <si>
+    <t>https://books.google.co.uk/books?hl=en&amp;lr=&amp;id=ptnQAgAAQBAJ&amp;oi=fnd&amp;pg=PA121&amp;dq=%27video+games%27+%27teaching%27&amp;ots=Sba50diknG&amp;sig=uO7YqMGrzwytGf-K_W2TyWfc44o&amp;redir_esc=y#v=onepage&amp;q&amp;f=false</t>
+  </si>
+  <si>
+    <t>video games' 'teaching'</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/side-view-of-cute-african-american-schoolboy-in-vr-headset-controling-virtual-robot-while-his-classmate-watching-action-on-tablet-screen-D01uekipoOo</t>
+  </si>
+  <si>
+    <t>Used for the index page of my website. I like this as I think it gives a sleek front page</t>
+  </si>
+  <si>
+    <t>children vr'</t>
+  </si>
+  <si>
+    <t>Learning in virtual reality: Effects on performance, emotion and engagement</t>
+  </si>
+  <si>
+    <t>https://journal.alt.ac.uk/index.php/rlt/article/view/2140/pdf_1</t>
+  </si>
+  <si>
+    <t>virtual reality' 'engagement' 'student' 'learning'</t>
   </si>
 </sst>
 </file>
@@ -208,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,12 +272,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -272,7 +311,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -590,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F48EBD8-D6B6-4176-ABCE-DB99377A82F4}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="57" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,15 +783,51 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="D11" s="10" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -742,6 +835,7 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{2DC4CCFB-EB98-438E-8293-E0330A27B987}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{1D7EB335-DEFE-4EC0-AAE9-542F560AFC0F}"/>
     <hyperlink ref="B10" r:id="rId3" xr:uid="{C53BD263-5806-43A6-8EF6-843755E23334}"/>
+    <hyperlink ref="B12" r:id="rId4" location="v=onepage&amp;q&amp;f=false" xr:uid="{4373B299-D692-408F-BA76-D5DAB7A852A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
